--- a/Question-and-answer tool/Put_excel_here/test.xlsx
+++ b/Question-and-answer tool/Put_excel_here/test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="10500"/>
+    <workbookView windowWidth="22188" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="选择题" sheetId="1" r:id="rId1"/>
+    <sheet name="判断题" sheetId="2" r:id="rId2"/>
+    <sheet name="填空题" sheetId="3" r:id="rId3"/>
+    <sheet name="简答题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -207,6 +208,64 @@
       <t>》</t>
     </r>
   </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>生产经营场所和员工宿舍应当设有符合紧急疏散要求、标志明显、保持畅通的出口。锁闭、封堵生产经营场所或者员工宿舍的出口须经消防管理部门同意。</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>安全生产法-第四十二条</t>
+  </si>
+  <si>
+    <t>生产经营场所和员工宿舍应当设有符合紧急疏散要求、标志明显、保持畅通的出口。禁止锁闭、封堵生产经营场所或者员工宿舍的出口。
+生产经营场所和员工宿舍应当设有符合紧急疏散要求、标志明显、保持畅通的出口、疏散通道。禁止占用、锁闭、封堵生产经营场所或者员工宿舍的出口、疏散通道。</t>
+  </si>
+  <si>
+    <t>把作业场所和工作岗位存在的危险因素如实告知从业人员，会有负面影响，引起恐慌，增加思想负担，不利于安全生产。</t>
+  </si>
+  <si>
+    <t>安全生产法-第四十四条</t>
+  </si>
+  <si>
+    <t>生产经营单位应当教育和督促从业人员严格执行本单位的安全生产规章制度和安全操作规程；并向从业人员如实告知作业场所和工作岗位存在的危险因素、防范措施以及事故应急措施。</t>
+  </si>
+  <si>
+    <t>员工的安全职责：严格遵守安全规章制度、操作规程和劳动纪律，服从管理，坚守岗位，对自己在工作中的行为负责，履行工作安全责任，互相关心工作安全，不（    ）。</t>
+  </si>
+  <si>
+    <t>违章作业</t>
+  </si>
+  <si>
+    <t>国家电网公司安全职责规范-第三十一条</t>
+  </si>
+  <si>
+    <t>员工的安全职责：严格遵守安全规章制度、操作规程和劳动纪律，服从管理，坚守岗位，对自己在工作中的行为负责，履行工作安全责任，互相关心工作安全，不违章作业。</t>
+  </si>
+  <si>
+    <t>安全生产工作应当以人为本，坚持人民至上、生命至上，把保护(  )安全摆在首位。</t>
+  </si>
+  <si>
+    <t>人民生命</t>
+  </si>
+  <si>
+    <t>安全生产法-第三条</t>
+  </si>
+  <si>
+    <t>安全生产工作应当以人为本，坚持人民至上、生命至上，把保护人民生命安全摆在首位，树牢安全发展理念，坚持安全第一、预防为主、综合治理的方针，从源头上防范化解重大安全风险。</t>
+  </si>
+  <si>
+    <t>在电气设备上工作，保证安全的技术措施有哪些？</t>
+  </si>
+  <si>
+    <t>在电气设备上工作，保证安全的技术措施：a）停电。b）验电。c）接地。d）悬挂标示牌和装设遮栏（围栏）。上述措施由运维人员或有权执行操作的人员执行。</t>
+  </si>
+  <si>
+    <t>国家电网公司电力安全工作规程（变电部分）7.1</t>
+  </si>
 </sst>
 </file>
 
@@ -218,13 +277,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -375,6 +440,11 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -577,12 +647,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,7 +769,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -703,148 +788,155 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -894,6 +986,7 @@
     <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_2012安全学习考试题库" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1154,13 +1247,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="72.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.7777777777778" customWidth="1"/>
@@ -1276,61 +1369,26 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1343,14 +1401,71 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="34.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="48.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="109.2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="57.6" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1360,16 +1475,128 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="18.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="30.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" ht="100.8" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="109.2" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="21.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="100.8" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>